--- a/5/1/1/2/Agregados promedios 1965 a 2021 - Mensual.xlsx
+++ b/5/1/1/2/Agregados promedios 1965 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="703">
   <si>
     <t>Serie</t>
   </si>
@@ -2120,6 +2120,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -2477,7 +2480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI668"/>
+  <dimension ref="A1:AI669"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39919,16 +39922,16 @@
         <v>25927</v>
       </c>
       <c r="AF667">
-        <v>3288</v>
+        <v>3479</v>
       </c>
       <c r="AG667">
         <v>18662</v>
       </c>
       <c r="AH667">
-        <v>1290</v>
+        <v>1330</v>
       </c>
       <c r="AI667">
-        <v>277049</v>
+        <v>277200</v>
       </c>
     </row>
     <row r="668" spans="1:35">
@@ -39975,19 +39978,19 @@
         <v>10342</v>
       </c>
       <c r="O668">
-        <v>21130</v>
+        <v>20458</v>
       </c>
       <c r="P668">
-        <v>1357</v>
+        <v>1341</v>
       </c>
       <c r="Q668">
-        <v>15279</v>
+        <v>14309</v>
       </c>
       <c r="R668">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S668">
-        <v>166429</v>
+        <v>166713</v>
       </c>
       <c r="T668">
         <v>25108</v>
@@ -40017,25 +40020,132 @@
         <v>225</v>
       </c>
       <c r="AC668">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="AD668">
-        <v>31619</v>
+        <v>31102</v>
       </c>
       <c r="AE668">
-        <v>25947</v>
+        <v>25485</v>
       </c>
       <c r="AF668">
-        <v>3285</v>
+        <v>3539</v>
       </c>
       <c r="AG668">
-        <v>18439</v>
+        <v>17736</v>
       </c>
       <c r="AH668">
-        <v>1291</v>
+        <v>1344</v>
       </c>
       <c r="AI668">
-        <v>280147</v>
+        <v>280397</v>
+      </c>
+    </row>
+    <row r="669" spans="1:35">
+      <c r="A669" t="s">
+        <v>702</v>
+      </c>
+      <c r="B669">
+        <v>14782</v>
+      </c>
+      <c r="C669">
+        <v>45877</v>
+      </c>
+      <c r="D669">
+        <v>27473</v>
+      </c>
+      <c r="E669">
+        <v>18405</v>
+      </c>
+      <c r="F669">
+        <v>19646</v>
+      </c>
+      <c r="G669">
+        <v>80305</v>
+      </c>
+      <c r="H669">
+        <v>70315</v>
+      </c>
+      <c r="I669">
+        <v>44431</v>
+      </c>
+      <c r="J669">
+        <v>39273</v>
+      </c>
+      <c r="K669">
+        <v>5158</v>
+      </c>
+      <c r="L669">
+        <v>25309</v>
+      </c>
+      <c r="M669">
+        <v>575</v>
+      </c>
+      <c r="N669">
+        <v>10658</v>
+      </c>
+      <c r="O669">
+        <v>21339</v>
+      </c>
+      <c r="P669">
+        <v>1371</v>
+      </c>
+      <c r="Q669">
+        <v>14573</v>
+      </c>
+      <c r="R669">
+        <v>87</v>
+      </c>
+      <c r="S669">
+        <v>169328</v>
+      </c>
+      <c r="T669">
+        <v>26120</v>
+      </c>
+      <c r="U669">
+        <v>13950</v>
+      </c>
+      <c r="V669">
+        <v>13681</v>
+      </c>
+      <c r="W669">
+        <v>269</v>
+      </c>
+      <c r="X669">
+        <v>0</v>
+      </c>
+      <c r="Y669">
+        <v>35259</v>
+      </c>
+      <c r="Z669">
+        <v>17021</v>
+      </c>
+      <c r="AA669">
+        <v>18239</v>
+      </c>
+      <c r="AB669">
+        <v>215</v>
+      </c>
+      <c r="AC669">
+        <v>296</v>
+      </c>
+      <c r="AD669">
+        <v>31139</v>
+      </c>
+      <c r="AE669">
+        <v>25461</v>
+      </c>
+      <c r="AF669">
+        <v>3440</v>
+      </c>
+      <c r="AG669">
+        <v>17961</v>
+      </c>
+      <c r="AH669">
+        <v>1322</v>
+      </c>
+      <c r="AI669">
+        <v>285924</v>
       </c>
     </row>
   </sheetData>

--- a/5/1/1/2/Agregados promedios 1965 a 2021 - Mensual.xlsx
+++ b/5/1/1/2/Agregados promedios 1965 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="704">
   <si>
     <t>Serie</t>
   </si>
@@ -2123,6 +2123,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -2480,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI669"/>
+  <dimension ref="A1:AI670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40029,16 +40032,16 @@
         <v>25485</v>
       </c>
       <c r="AF668">
-        <v>3539</v>
+        <v>3678</v>
       </c>
       <c r="AG668">
         <v>17736</v>
       </c>
       <c r="AH668">
-        <v>1344</v>
+        <v>1368</v>
       </c>
       <c r="AI668">
-        <v>280397</v>
+        <v>280512</v>
       </c>
     </row>
     <row r="669" spans="1:35">
@@ -40085,19 +40088,19 @@
         <v>10658</v>
       </c>
       <c r="O669">
-        <v>21339</v>
+        <v>23256</v>
       </c>
       <c r="P669">
-        <v>1371</v>
+        <v>1381</v>
       </c>
       <c r="Q669">
-        <v>14573</v>
+        <v>14910</v>
       </c>
       <c r="R669">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S669">
-        <v>169328</v>
+        <v>170921</v>
       </c>
       <c r="T669">
         <v>26120</v>
@@ -40127,25 +40130,132 @@
         <v>215</v>
       </c>
       <c r="AC669">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="AD669">
-        <v>31139</v>
+        <v>30914</v>
       </c>
       <c r="AE669">
-        <v>25461</v>
+        <v>25221</v>
       </c>
       <c r="AF669">
-        <v>3440</v>
+        <v>3625</v>
       </c>
       <c r="AG669">
-        <v>17961</v>
+        <v>18389</v>
       </c>
       <c r="AH669">
-        <v>1322</v>
+        <v>1354</v>
       </c>
       <c r="AI669">
-        <v>285924</v>
+        <v>286767</v>
+      </c>
+    </row>
+    <row r="670" spans="1:35">
+      <c r="A670" t="s">
+        <v>703</v>
+      </c>
+      <c r="B670">
+        <v>15021</v>
+      </c>
+      <c r="C670">
+        <v>45928</v>
+      </c>
+      <c r="D670">
+        <v>27448</v>
+      </c>
+      <c r="E670">
+        <v>18480</v>
+      </c>
+      <c r="F670">
+        <v>19333</v>
+      </c>
+      <c r="G670">
+        <v>80283</v>
+      </c>
+      <c r="H670">
+        <v>71158</v>
+      </c>
+      <c r="I670">
+        <v>44622</v>
+      </c>
+      <c r="J670">
+        <v>39579</v>
+      </c>
+      <c r="K670">
+        <v>5044</v>
+      </c>
+      <c r="L670">
+        <v>25967</v>
+      </c>
+      <c r="M670">
+        <v>569</v>
+      </c>
+      <c r="N670">
+        <v>10924</v>
+      </c>
+      <c r="O670">
+        <v>24320</v>
+      </c>
+      <c r="P670">
+        <v>1407</v>
+      </c>
+      <c r="Q670">
+        <v>15554</v>
+      </c>
+      <c r="R670">
+        <v>85</v>
+      </c>
+      <c r="S670">
+        <v>172452</v>
+      </c>
+      <c r="T670">
+        <v>27831</v>
+      </c>
+      <c r="U670">
+        <v>14858</v>
+      </c>
+      <c r="V670">
+        <v>14588</v>
+      </c>
+      <c r="W670">
+        <v>269</v>
+      </c>
+      <c r="X670">
+        <v>0</v>
+      </c>
+      <c r="Y670">
+        <v>35793</v>
+      </c>
+      <c r="Z670">
+        <v>17299</v>
+      </c>
+      <c r="AA670">
+        <v>18494</v>
+      </c>
+      <c r="AB670">
+        <v>182</v>
+      </c>
+      <c r="AC670">
+        <v>287</v>
+      </c>
+      <c r="AD670">
+        <v>30900</v>
+      </c>
+      <c r="AE670">
+        <v>25304</v>
+      </c>
+      <c r="AF670">
+        <v>3594</v>
+      </c>
+      <c r="AG670">
+        <v>18691</v>
+      </c>
+      <c r="AH670">
+        <v>1351</v>
+      </c>
+      <c r="AI670">
+        <v>291160</v>
       </c>
     </row>
   </sheetData>

--- a/5/1/1/2/Agregados promedios 1965 a 2021 - Mensual.xlsx
+++ b/5/1/1/2/Agregados promedios 1965 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="705">
   <si>
     <t>Serie</t>
   </si>
@@ -2126,6 +2126,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -2483,7 +2486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI670"/>
+  <dimension ref="A1:AI671"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40139,16 +40142,16 @@
         <v>25221</v>
       </c>
       <c r="AF669">
-        <v>3625</v>
+        <v>3720</v>
       </c>
       <c r="AG669">
         <v>18389</v>
       </c>
       <c r="AH669">
-        <v>1354</v>
+        <v>1375</v>
       </c>
       <c r="AI669">
-        <v>286767</v>
+        <v>286840</v>
       </c>
     </row>
     <row r="670" spans="1:35">
@@ -40174,7 +40177,7 @@
         <v>80283</v>
       </c>
       <c r="H670">
-        <v>71158</v>
+        <v>71190</v>
       </c>
       <c r="I670">
         <v>44622</v>
@@ -40186,7 +40189,7 @@
         <v>5044</v>
       </c>
       <c r="L670">
-        <v>25967</v>
+        <v>25999</v>
       </c>
       <c r="M670">
         <v>569</v>
@@ -40195,19 +40198,19 @@
         <v>10924</v>
       </c>
       <c r="O670">
-        <v>24320</v>
+        <v>23672</v>
       </c>
       <c r="P670">
-        <v>1407</v>
+        <v>1412</v>
       </c>
       <c r="Q670">
-        <v>15554</v>
+        <v>14095</v>
       </c>
       <c r="R670">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="S670">
-        <v>172452</v>
+        <v>173293</v>
       </c>
       <c r="T670">
         <v>27831</v>
@@ -40237,25 +40240,132 @@
         <v>182</v>
       </c>
       <c r="AC670">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c r="AD670">
-        <v>30900</v>
+        <v>30863</v>
       </c>
       <c r="AE670">
-        <v>25304</v>
+        <v>25627</v>
       </c>
       <c r="AF670">
-        <v>3594</v>
+        <v>3721</v>
       </c>
       <c r="AG670">
-        <v>18691</v>
+        <v>18619</v>
       </c>
       <c r="AH670">
-        <v>1351</v>
+        <v>1379</v>
       </c>
       <c r="AI670">
-        <v>291160</v>
+        <v>292394</v>
+      </c>
+    </row>
+    <row r="671" spans="1:35">
+      <c r="A671" t="s">
+        <v>704</v>
+      </c>
+      <c r="B671">
+        <v>15194</v>
+      </c>
+      <c r="C671">
+        <v>45640</v>
+      </c>
+      <c r="D671">
+        <v>26933</v>
+      </c>
+      <c r="E671">
+        <v>18706</v>
+      </c>
+      <c r="F671">
+        <v>18934</v>
+      </c>
+      <c r="G671">
+        <v>79767</v>
+      </c>
+      <c r="H671">
+        <v>71972</v>
+      </c>
+      <c r="I671">
+        <v>44605</v>
+      </c>
+      <c r="J671">
+        <v>39462</v>
+      </c>
+      <c r="K671">
+        <v>5143</v>
+      </c>
+      <c r="L671">
+        <v>26787</v>
+      </c>
+      <c r="M671">
+        <v>580</v>
+      </c>
+      <c r="N671">
+        <v>11152</v>
+      </c>
+      <c r="O671">
+        <v>21947</v>
+      </c>
+      <c r="P671">
+        <v>1438</v>
+      </c>
+      <c r="Q671">
+        <v>12979</v>
+      </c>
+      <c r="R671">
+        <v>104</v>
+      </c>
+      <c r="S671">
+        <v>173194</v>
+      </c>
+      <c r="T671">
+        <v>29112</v>
+      </c>
+      <c r="U671">
+        <v>14991</v>
+      </c>
+      <c r="V671">
+        <v>14722</v>
+      </c>
+      <c r="W671">
+        <v>269</v>
+      </c>
+      <c r="X671">
+        <v>0</v>
+      </c>
+      <c r="Y671">
+        <v>36778</v>
+      </c>
+      <c r="Z671">
+        <v>17743</v>
+      </c>
+      <c r="AA671">
+        <v>19035</v>
+      </c>
+      <c r="AB671">
+        <v>115</v>
+      </c>
+      <c r="AC671">
+        <v>260</v>
+      </c>
+      <c r="AD671">
+        <v>30833</v>
+      </c>
+      <c r="AE671">
+        <v>25768</v>
+      </c>
+      <c r="AF671">
+        <v>3706</v>
+      </c>
+      <c r="AG671">
+        <v>18176</v>
+      </c>
+      <c r="AH671">
+        <v>1374</v>
+      </c>
+      <c r="AI671">
+        <v>295207</v>
       </c>
     </row>
   </sheetData>
